--- a/prcomp.xlsx
+++ b/prcomp.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B10068-E283-4596-B2A3-55860BB777A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="1656" windowWidth="25872" windowHeight="22908" xr2:uid="{15FAF30F-9CAC-4FAC-B15F-D5B2D00C2CF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9132" windowHeight="3840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>language</t>
   </si>
@@ -46,30 +45,6 @@
   </si>
   <si>
     <t>society</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>平均</t>
@@ -86,19 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←科目ごとの平均</t>
-    <rPh sb="1" eb="3">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
     <t>←0になることを確認する．</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
@@ -213,48 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←標準偏差の合計</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑第1主成分スコアの標準偏差</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュセイブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←科目ごとの標準偏差（VAR.P）</t>
-    <rPh sb="1" eb="3">
-      <t>カモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑条件（H18=1）</t>
     <rPh sb="1" eb="3">
       <t>ジョウケン</t>
@@ -269,22 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑第2主成分スコアの標準偏差</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュセイブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑条件（J18=1かつHとJの内積は0）</t>
     <rPh sb="1" eb="3">
       <t>ジョウケン</t>
@@ -295,22 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑係数を掛けて足し合わせる．（MMULT）</t>
-    <rPh sb="1" eb="3">
-      <t>ケイスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↑ソルバーで最大化する．（負もOK）</t>
     <rPh sb="6" eb="9">
       <t>サイダイカ</t>
@@ -321,36 +209,110 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>色を付けた部分が，Rでの計算結果と同じになることを確認する．（正負の反転は可）</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイフ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ハンテン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
+    <t>←科目ごとの分散（VAR.P）</t>
+    <rPh sb="1" eb="3">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑第1主成分スコアの分散</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑第2主成分スコアの分散</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>←科目ごとの平均（AVERAGE）</t>
+    <rPh sb="1" eb="3">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←分散の合計（SUM）</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑係数を2乗して足し合わせる．
+（SUMPRODUCT）</t>
+    <rPh sb="1" eb="3">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑係数を掛けて足し合わせる．
+（MMULT）</t>
+    <rPh sb="1" eb="3">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,8 +320,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +337,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -385,7 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,14 +382,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,36 +410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2086CC7C-B7CE-457A-8375-F6AAACF75497}" name="テーブル1" displayName="テーブル1" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{A0416F13-07B6-406E-AAA2-9F9FBA91AFBE}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{51EE1BFA-697F-497A-87F4-8D601DD57D6B}" name="列1"/>
-    <tableColumn id="2" xr3:uid="{59384D89-566F-4018-88B9-11AE72C3AEE4}" name="language"/>
-    <tableColumn id="3" xr3:uid="{821B9995-B666-4E22-938C-64986ECF89FA}" name="english"/>
-    <tableColumn id="4" xr3:uid="{8D4595E0-D2ED-45FD-957D-415D034D7665}" name="math"/>
-    <tableColumn id="5" xr3:uid="{98A6EF5A-A07E-4FCC-AC69-44C68899BA08}" name="science"/>
-    <tableColumn id="6" xr3:uid="{3D4C852B-829C-4A0C-BEC3-7F34067EDAFB}" name="society"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B7A9B2-E560-47FF-B94F-F1BBDD5A57A4}" name="テーブル2" displayName="テーブル2" ref="A11:F17" totalsRowShown="0">
-  <autoFilter ref="A11:F17" xr:uid="{BE980B90-BF07-457C-853C-A305B0188A84}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D4E50874-E94C-4364-9F6E-53C09741CD5E}" name="列1"/>
-    <tableColumn id="2" xr3:uid="{E86B426E-AD4D-4A92-9267-E121081ACAC2}" name="language"/>
-    <tableColumn id="3" xr3:uid="{C2F3AE68-4FEF-45DE-B226-14B73DA981BB}" name="english"/>
-    <tableColumn id="4" xr3:uid="{80B742D6-6A48-4B98-BCF6-F857967A88B8}" name="math"/>
-    <tableColumn id="5" xr3:uid="{80694A88-2299-44E4-8B43-5AE11DEB4CFD}" name="science"/>
-    <tableColumn id="6" xr3:uid="{5668273A-29C9-42CD-B252-E37ACB3E5291}" name="society"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,52 +708,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF909800-A94A-46C5-9E23-35D447DBA87D}">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="27.09765625" customWidth="1"/>
+    <col min="9" max="9" width="26.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -822,7 +764,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -842,7 +784,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -862,7 +804,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -882,7 +824,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -902,7 +844,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -922,190 +864,150 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>28</v>
+      </c>
       <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="54" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+      <c r="H19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I22" t="e">
-        <f>I18/$H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f>K18/$H9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G12:G17"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/prcomp.xlsx
+++ b/prcomp.xlsx
@@ -1,20 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データマイニング入門\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B368B8-7A15-4DA1-88CB-27F8F05FFCDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9132" windowHeight="3840"/>
+    <workbookView xWindow="10020" yWindow="924" windowWidth="26976" windowHeight="20748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="穴埋め" sheetId="2" r:id="rId1"/>
+    <sheet name="解答" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">解答!$J$12:$J$16</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">穴埋め!$J$12:$J$16</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">解答!$J$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">穴埋め!$J$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">解答!$J$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">穴埋め!$J$21</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">解答!$K$19</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">穴埋め!$K$19</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>language</t>
   </si>
@@ -185,16 +255,6 @@
     <t>↑寄与率</t>
     <rPh sb="1" eb="4">
       <t>キヨリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑条件（J18=1かつHとJの内積は0）</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ナイセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -316,12 +376,56 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>↑条件（J18=1かつJ21=0）</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力するところ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピーするところ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑第1主成分係数と第2主成分係数を
+かけて足し合わせる．（SUMPRODUCT）</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>シュセイブンケイスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,22 +443,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +459,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,18 +489,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,6 +526,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35170</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242382</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA50324-BDBD-4712-98AB-6FC301900F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="363416" y="7162800"/>
+          <a:ext cx="6971428" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509953</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>570628</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>186023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F71FE-F562-4C5E-94B0-6F2A49E5C0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7602415" y="7168661"/>
+          <a:ext cx="6971428" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,20 +917,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="27.09765625" customWidth="1"/>
-    <col min="9" max="9" width="26.59765625" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.09765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -729,158 +943,175 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D6" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
+      <c r="E7" s="3">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="G10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -888,126 +1119,823 @@
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="54" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.45">
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.45">
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.45">
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I23" s="1"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G12:G17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(B2:B7)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:F8" si="0">AVERAGE(C2:C7)</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>32.833333333333336</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <f>_xlfn.VAR.P(B2:B7)</f>
+        <v>65.888888888888886</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:F9" si="1">_xlfn.VAR.P(C2:C7)</f>
+        <v>136.55555555555554</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>961.80555555555554</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>85.805555555555557</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>123.22222222222223</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F10" s="1">
+        <f>SUM(B9:F9)</f>
+        <v>1373.2777777777778</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B2-B$8</f>
+        <v>-17.333333333333332</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:F12" si="2">C2-C$8</f>
+        <v>-20.333333333333332</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>67.166666666666657</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.833333333333334</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.666666666666666</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.20734213717340788</v>
+      </c>
+      <c r="I12" s="1">
+        <f>MMULT($B12:$F12,H$12:H$16)</f>
+        <v>74.903084098229613</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.27972405777237347</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12:K16" si="3">MMULT($B12:$F12,J$12:J$16)</f>
+        <v>-7.0552551913647097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" ref="B13:F13" si="4">B3-B$8</f>
+        <v>2.6666666666666679</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.33333333333333215</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>-12.833333333333336</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>5.1666666666666661</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1">
+        <v>-0.30487332400005174</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:K17" si="5">MMULT($B13:$F13,H$12:H$16)</f>
+        <v>-13.814825594206955</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.3249309283282194</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7620431648129631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" ref="B14:F14" si="6">B4-B$8</f>
+        <v>2.6666666666666679</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="6"/>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="6"/>
+        <v>-27.833333333333336</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="6"/>
+        <v>-9.8333333333333339</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="6"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1">
+        <v>0.88719321218376634</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>-33.727239241386258</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-9.8132221275018069E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>-18.397706419530959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" ref="B15:F15" si="7">B5-B$8</f>
+        <v>7.6666666666666679</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.33333333333333215</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.8333333333333357</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="7"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>-14.666666666666666</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1">
+        <v>-0.12968091050845071</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.7234834266815162</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.70274173478205515</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>17.877026545182886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" ref="B16:F16" si="8">B6-B$8</f>
+        <v>4.6666666666666679</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6666666666666679</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="8"/>
+        <v>-15.833333333333336</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1666666666666661</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="8"/>
+        <v>6.3333333333333339</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1">
+        <v>-0.24522626420485338</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="5"/>
+        <v>-17.837085423276328</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.55919883151739791</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.0540015397757316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:F17" si="9">B7-B$8</f>
+        <v>-0.33333333333333215</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="9"/>
+        <v>-2.3333333333333321</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="9"/>
+        <v>-7.8333333333333357</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="9"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="9"/>
+        <v>2.3333333333333339</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.8004504126785879</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="5"/>
+        <v>5.8678934406755507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="54" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" ref="B18:F18" si="10">AVERAGE(B12:B17)</f>
+        <v>1.1842378929335002E-15</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="10"/>
+        <v>1.1842378929335002E-15</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="10"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="10"/>
+        <v>5.9211894646675012E-16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SUMPRODUCT(H12:H16,H12:H16)</f>
+        <v>1.0000033604855956</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="4">
+        <f>SUMPRODUCT(J12:J16,J12:J16)</f>
+        <v>1.0000048685081651</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="54" x14ac:dyDescent="0.45">
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <f>_xlfn.VAR.P(I12:I17)</f>
+        <v>1220.13785310508</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4">
+        <f>_xlfn.VAR.P(K12:K17)</f>
+        <v>125.16871342216093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1">
+        <f>SUMPRODUCT(H12:H16,J12:J16)</f>
+        <v>2.6992852397711431E-12</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.45">
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I23" s="1">
+        <f>I19/$F10</f>
+        <v>0.88848583502129697</v>
+      </c>
+      <c r="K23" s="4">
+        <f>K19/$F10</f>
+        <v>9.1145954189040687E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G12:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>